--- a/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
+++ b/src/test/java/ApachePOI/resource/WriteInTheExcelFile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechnoStudy\IdeaProjects\Cucumber_Kursu\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w10\IdeaProjects\Cucumber_Kursu3\src\test\java\ApachePOI\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Merhaba Dünya</t>
+  </si>
+  <si>
+    <t>Balcan</t>
+  </si>
+  <si>
+    <t>gabak</t>
+  </si>
+  <si>
+    <t>ökkeş</t>
   </si>
 </sst>
 </file>
@@ -345,17 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="n">
         <v>1.0</v>
@@ -382,6 +389,51 @@
         <v>8.0</v>
       </c>
       <c r="J1" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="G7" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="H8" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="I9" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="J10" t="n">
         <v>9.0</v>
       </c>
     </row>
